--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-7.636109746538827</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.84437661665139</v>
+        <v>-14.32499823732504</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06941810350592369</v>
+        <v>0.8519003397691814</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.216257471050191</v>
+        <v>-8.521442233644706</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.683377874533442</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.37215352880706</v>
+        <v>-14.82348766802376</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2105793127454142</v>
+        <v>0.7397647659297977</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.371217967484862</v>
+        <v>-8.572397476304703</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.738336932381315</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.63381629340179</v>
+        <v>-15.11902022007004</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03046850255178864</v>
+        <v>0.9667722049024859</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.933345898943333</v>
+        <v>-8.234157832388711</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.795555769669911</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.27270757977518</v>
+        <v>-15.68263076510351</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06537258192783034</v>
+        <v>0.9333475557475593</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.787628568314922</v>
+        <v>-8.098652497976845</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.854938130953629</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.81340659483563</v>
+        <v>-16.19109653056762</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1489669355722513</v>
+        <v>0.8683180875327059</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.71381416489327</v>
+        <v>-7.945812954602535</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.91606395815888</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.41525975646977</v>
+        <v>-16.74507114070958</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01266297068704119</v>
+        <v>1.000838376896657</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.272629743732785</v>
+        <v>-7.501054334766259</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.972062282621377</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.13597793560395</v>
+        <v>-17.4021083588216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1225674253651474</v>
+        <v>1.097669048714063</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.244389646503182</v>
+        <v>-7.381626348244033</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.016782634086269</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.64766440756713</v>
+        <v>-17.86496054118514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07378550497687604</v>
+        <v>1.098192740827732</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.868627462642802</v>
+        <v>-7.008901578642934</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.039873435363846</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.35206957736052</v>
+        <v>-18.58181649098101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2353183374380923</v>
+        <v>1.265774217201826</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.659333909414969</v>
+        <v>-6.814507066048986</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.035865592933979</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.05964308444161</v>
+        <v>-19.24097466215339</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2871507643884858</v>
+        <v>1.331065531473514</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.570934680627635</v>
+        <v>-6.733269326916075</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.002158205600187</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.93636914423779</v>
+        <v>-20.06390444957292</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2398613665241712</v>
+        <v>1.296999359479343</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.19111388288632</v>
+        <v>-6.406459263380909</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.943438428347696</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.61597749244895</v>
+        <v>-20.74966618011969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.243409380594279</v>
+        <v>1.309463231784666</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.79585726009461</v>
+        <v>-6.053556240282183</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.870139606360493</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.55182839187837</v>
+        <v>-21.68339612648876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.315914553731758</v>
+        <v>1.426351311555596</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.321510035836033</v>
+        <v>-5.647891236731301</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.79509392507743</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.30815763474205</v>
+        <v>-22.44456952140387</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4912073964796283</v>
+        <v>1.627527637021559</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.99320744977691</v>
+        <v>-5.274760605742108</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.732678281528472</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.37574328536492</v>
+        <v>-23.49928543833332</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7988110517459822</v>
+        <v>1.914275253861043</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.643944086868184</v>
+        <v>-4.958293461451905</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.692321670324316</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.37168785483786</v>
+        <v>-24.44134208930972</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8782551453895761</v>
+        <v>2.040930191551901</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.067385254324251</v>
+        <v>-4.386683519382145</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.684089714902536</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.17690375651254</v>
+        <v>-25.25208294278361</v>
       </c>
       <c r="F18" t="n">
-        <v>1.013642649075865</v>
+        <v>2.185704876375708</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.717441091667755</v>
+        <v>-4.069195175470288</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.708362408087715</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.81151385985668</v>
+        <v>-25.93726861200534</v>
       </c>
       <c r="F19" t="n">
-        <v>1.272673860799415</v>
+        <v>2.484235565772746</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.319421992976441</v>
+        <v>-3.633470244594803</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.76618817248677</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.38836072306313</v>
+        <v>-26.49892840391539</v>
       </c>
       <c r="F20" t="n">
-        <v>1.496787900844082</v>
+        <v>2.624454129207632</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.814491149279591</v>
+        <v>-3.067895854135078</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.847169367533018</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.11096419380652</v>
+        <v>-27.14360648814482</v>
       </c>
       <c r="F21" t="n">
-        <v>1.56162098451631</v>
+        <v>2.729559136421009</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.647957057132836</v>
+        <v>-2.867596712959511</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.944650607625852</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.77597462434915</v>
+        <v>-27.72545461103681</v>
       </c>
       <c r="F22" t="n">
-        <v>1.913908669381475</v>
+        <v>2.989467532434955</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.504805817861403</v>
+        <v>-2.694791407751569</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.042958174864651</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.17216080064263</v>
+        <v>-28.08536201615586</v>
       </c>
       <c r="F23" t="n">
-        <v>2.07968340796341</v>
+        <v>3.119709761104446</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.239254639322673</v>
+        <v>-2.423113031482911</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.133696749913893</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.58887570779192</v>
+        <v>-28.48796342084178</v>
       </c>
       <c r="F24" t="n">
-        <v>2.174131280663622</v>
+        <v>3.201929422950486</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.326501745459935</v>
+        <v>-2.518830857558771</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.202580689003664</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.95748949430072</v>
+        <v>-28.85111771706558</v>
       </c>
       <c r="F25" t="n">
-        <v>2.44542998014987</v>
+        <v>3.389044615164435</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.17794338511487</v>
+        <v>-2.366475729389604</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.244818911987203</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.12326423288266</v>
+        <v>-28.98325832964712</v>
       </c>
       <c r="F26" t="n">
-        <v>2.397957290045771</v>
+        <v>3.338403587772638</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.25660194058796</v>
+        <v>-2.343878414684785</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.253042234557</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.01489924226169</v>
+        <v>-28.92027126067557</v>
       </c>
       <c r="F27" t="n">
-        <v>2.478055998831451</v>
+        <v>3.375140589546521</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.258081370809075</v>
+        <v>-2.354352256958166</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.227835702347441</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.92309601473551</v>
+        <v>-28.82249794305356</v>
       </c>
       <c r="F28" t="n">
-        <v>2.426393771818</v>
+        <v>3.323687839378538</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.054823369191278</v>
+        <v>-2.090306693246234</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.167477491636454</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.97283367323123</v>
+        <v>-28.84980848678141</v>
       </c>
       <c r="F29" t="n">
-        <v>2.414191745569512</v>
+        <v>3.260321093624584</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.137082307945843</v>
+        <v>-2.12379680391537</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.073373462589869</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.68985663961016</v>
+        <v>-28.56603282268699</v>
       </c>
       <c r="F30" t="n">
-        <v>2.380518342660592</v>
+        <v>3.217640186360557</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.439881088069283</v>
+        <v>-2.337842863074749</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.945845446592601</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.34245238370496</v>
+        <v>-28.22194091940075</v>
       </c>
       <c r="F31" t="n">
-        <v>2.348075616218795</v>
+        <v>3.125208528297971</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.5979313679746</v>
+        <v>-2.469433598936938</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.784673353033425</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.00490663183957</v>
+        <v>-27.89653173226965</v>
       </c>
       <c r="F32" t="n">
-        <v>2.442340196679222</v>
+        <v>3.193052841623795</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.854108457678654</v>
+        <v>-2.705186696207899</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.592023057885497</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.71513469304365</v>
+        <v>-27.57045483769362</v>
       </c>
       <c r="F33" t="n">
-        <v>2.328489531167572</v>
+        <v>3.087895465199051</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.941643594478435</v>
+        <v>-2.77140756398135</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.36815302974954</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.02632245593476</v>
+        <v>-26.90913643655235</v>
       </c>
       <c r="F34" t="n">
-        <v>2.272480659610669</v>
+        <v>3.047466434023801</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.026926855189438</v>
+        <v>-2.859976992705627</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.120949357452534</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.5842346658782</v>
+        <v>-26.49624448183284</v>
       </c>
       <c r="F35" t="n">
-        <v>2.247710022634123</v>
+        <v>3.06634553472157</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.120707020444722</v>
+        <v>-2.964780876953644</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.85424761608451</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.02651565712351</v>
+        <v>-25.89551725824307</v>
       </c>
       <c r="F36" t="n">
-        <v>2.155566395234055</v>
+        <v>2.978653290287689</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.190711563739431</v>
+        <v>-3.016390734755728</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.579782289368476</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.3638356564867</v>
+        <v>-25.26301501565645</v>
       </c>
       <c r="F37" t="n">
-        <v>2.147815751951753</v>
+        <v>2.979019874767257</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.179897321592166</v>
+        <v>-3.032756113307885</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.302722813785817</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.82898890079651</v>
+        <v>-24.73027612072377</v>
       </c>
       <c r="F38" t="n">
-        <v>2.073320548782331</v>
+        <v>2.908609470084455</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.196498361595475</v>
+        <v>-3.091920229849646</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.036678157950541</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.19907893417254</v>
+        <v>-24.13379080325473</v>
       </c>
       <c r="F39" t="n">
-        <v>2.18465749214837</v>
+        <v>3.07142534822416</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.093723784287925</v>
+        <v>-3.079770572812524</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.78846510265962</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.65429512062548</v>
+        <v>-23.61880507097544</v>
       </c>
       <c r="F40" t="n">
-        <v>2.262504324845273</v>
+        <v>3.165375713416386</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.249260342047631</v>
+        <v>-3.166402340716225</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.572063375628948</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.01540383425209</v>
+        <v>-22.97840816977525</v>
       </c>
       <c r="F41" t="n">
-        <v>2.330401007382465</v>
+        <v>3.205490529323435</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.173743939256555</v>
+        <v>-3.155156052575182</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.393666920999714</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.43640983337959</v>
+        <v>-22.43412186373617</v>
       </c>
       <c r="F42" t="n">
-        <v>2.364467179376636</v>
+        <v>3.242279900308685</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.55584279769233</v>
+        <v>-3.538878356563332</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.264164589618791</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.83464831786534</v>
+        <v>-21.78339513559386</v>
       </c>
       <c r="F43" t="n">
-        <v>2.333255129401961</v>
+        <v>3.243405838353074</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.716904307251244</v>
+        <v>-3.696745344228865</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.184939973206239</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.98076832652796</v>
+        <v>-21.02185515619918</v>
       </c>
       <c r="F44" t="n">
-        <v>2.259178879923475</v>
+        <v>3.208894528062284</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.699897405859842</v>
+        <v>-3.70710135577667</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.160118967675973</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.45773082800101</v>
+        <v>-20.48565989331629</v>
       </c>
       <c r="F45" t="n">
-        <v>2.311914675769947</v>
+        <v>3.298393510288323</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.924888630194904</v>
+        <v>-3.88959496508749</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.184530526189604</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.81230648250959</v>
+        <v>-19.88537780802315</v>
       </c>
       <c r="F46" t="n">
-        <v>2.324666578737788</v>
+        <v>3.38522166273465</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.105811163164717</v>
+        <v>-4.075636588468417</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.254907068442754</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.48590228036252</v>
+        <v>-19.54609077987982</v>
       </c>
       <c r="F47" t="n">
-        <v>2.373055730040808</v>
+        <v>3.473489968493568</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.083816094390617</v>
+        <v>-4.15544726659158</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.3606615192343</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.85493183720838</v>
+        <v>-18.89249683741517</v>
       </c>
       <c r="F48" t="n">
-        <v>2.423330172953036</v>
+        <v>3.530310562826659</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.191146793087087</v>
+        <v>-4.261311627369777</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.494001758584735</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.28686990920873</v>
+        <v>-18.34715005484591</v>
       </c>
       <c r="F49" t="n">
-        <v>2.390782708088505</v>
+        <v>3.513971368880185</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.306778011785212</v>
+        <v>-4.347197134011499</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.642654490313847</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.8399641517064</v>
+        <v>-17.94168143583765</v>
       </c>
       <c r="F50" t="n">
-        <v>2.125296991063984</v>
+        <v>3.299598002149762</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.323483790211255</v>
+        <v>-4.452014110562359</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.797264060008405</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.14180401036852</v>
+        <v>-17.2795513119202</v>
       </c>
       <c r="F51" t="n">
-        <v>2.185024076627939</v>
+        <v>3.369641822352996</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.358230761953195</v>
+        <v>-4.520185731459226</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.946198053806238</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.68633588680771</v>
+        <v>-16.82558880318619</v>
       </c>
       <c r="F52" t="n">
-        <v>2.171224789432759</v>
+        <v>3.410332699585081</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.426336921335854</v>
+        <v>-4.554068611213613</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.079343782214191</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.12806700133367</v>
+        <v>-16.33499403110103</v>
       </c>
       <c r="F53" t="n">
-        <v>2.253784851152683</v>
+        <v>3.467755539848892</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.526833437948944</v>
+        <v>-4.682569563605155</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.186502221670986</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.56429934866611</v>
+        <v>-15.76029430556062</v>
       </c>
       <c r="F54" t="n">
-        <v>2.162217285077652</v>
+        <v>3.357649272949975</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.827236326652348</v>
+        <v>-4.908804556710181</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.258666167582555</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.98743939315681</v>
+        <v>-15.24470632735061</v>
       </c>
       <c r="F55" t="n">
-        <v>2.182222323819809</v>
+        <v>3.405671839773427</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.991138865927917</v>
+        <v>-5.065453960211433</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.290068872231537</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.71412447903294</v>
+        <v>-14.95403101965861</v>
       </c>
       <c r="F56" t="n">
-        <v>2.2059717611747</v>
+        <v>3.409049653906592</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.157371835109313</v>
+        <v>-5.21348862844283</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.275420670656821</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.18846851993764</v>
+        <v>-14.45027848321751</v>
       </c>
       <c r="F57" t="n">
-        <v>2.142107507912761</v>
+        <v>3.37778523472055</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.450325203495775</v>
+        <v>-5.462648243823718</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.215514832189314</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.80961655260661</v>
+        <v>-14.12993601728616</v>
       </c>
       <c r="F58" t="n">
-        <v>2.184264723063118</v>
+        <v>3.367337577052853</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.0157424863214</v>
+        <v>-5.87035564661791</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.109541964121709</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.29660775805642</v>
+        <v>-13.68407764401118</v>
       </c>
       <c r="F59" t="n">
-        <v>2.164757191828946</v>
+        <v>3.363802655285586</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.997426354645825</v>
+        <v>-5.968822856290532</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.963388369213777</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.85635289039769</v>
+        <v>-13.24816942089591</v>
       </c>
       <c r="F60" t="n">
-        <v>2.049754403667225</v>
+        <v>3.220703785225521</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.139242179027401</v>
+        <v>-6.133681133673546</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.780395748678397</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.67282498916238</v>
+        <v>-13.06585910382487</v>
       </c>
       <c r="F61" t="n">
-        <v>2.008906418801039</v>
+        <v>3.168910635183652</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.394450438321168</v>
+        <v>-6.338968442231812</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.570748067122759</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.32412459527585</v>
+        <v>-12.71412129567906</v>
       </c>
       <c r="F62" t="n">
-        <v>1.788850992637308</v>
+        <v>2.950661946812079</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.592235857351123</v>
+        <v>-6.504703903905222</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.340408627320326</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.02664129010615</v>
+        <v>-12.43127518508641</v>
       </c>
       <c r="F63" t="n">
-        <v>1.731689998430332</v>
+        <v>2.88483384812388</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.549384750150153</v>
+        <v>-6.540472075268817</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.099879780240423</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80489695687583</v>
+        <v>-12.26001477161379</v>
       </c>
       <c r="F64" t="n">
-        <v>1.710113883347167</v>
+        <v>2.85768041203014</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.790832999157266</v>
+        <v>-6.716615917701399</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.854569348204929</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.76734823232576</v>
+        <v>-12.21468921917574</v>
       </c>
       <c r="F65" t="n">
-        <v>1.487335258192356</v>
+        <v>2.65129335003317</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.863063233935069</v>
+        <v>-6.738375325024348</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.61161253177774</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.62735223803918</v>
+        <v>-12.0129892015961</v>
       </c>
       <c r="F66" t="n">
-        <v>1.401685413001784</v>
+        <v>2.615577547880942</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.000597875287401</v>
+        <v>-6.844684824099164</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.373883987127162</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.52762816729376</v>
+        <v>-11.94593042644078</v>
       </c>
       <c r="F67" t="n">
-        <v>1.080269378237409</v>
+        <v>2.331762606878004</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.880567642834456</v>
+        <v>-6.739383432343161</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.143058006273796</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.44726761245124</v>
+        <v>-11.86276811879014</v>
       </c>
       <c r="F68" t="n">
-        <v>1.002618930083132</v>
+        <v>2.24480353140326</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.759044887857555</v>
+        <v>-6.616407431750829</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.918951730604786</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.35403732391531</v>
+        <v>-11.85078866168996</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9176237000346463</v>
+        <v>2.179368201800313</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.553286256396988</v>
+        <v>-6.412206784328427</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.698184313584063</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.30033269765855</v>
+        <v>-11.73921605687277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6063149230640839</v>
+        <v>1.880706589374858</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.536711400999363</v>
+        <v>-6.314944066517244</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.48033219405551</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.14076371062359</v>
+        <v>-11.5754706252313</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5156114489766057</v>
+        <v>1.808306154660112</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.308316177925452</v>
+        <v>-6.0903979804788</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.261150913043573</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.25372409954201</v>
+        <v>-11.66935552890932</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5361532721352739</v>
+        <v>1.845723956181766</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.310908453888113</v>
+        <v>-6.050584287537111</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.042616187491722</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.45510990185344</v>
+        <v>-11.88617715627115</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4070762584186965</v>
+        <v>1.704484193125225</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.073780664818771</v>
+        <v>-5.826116755315717</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.819837222838593</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.64162284813667</v>
+        <v>-12.05949306128992</v>
       </c>
       <c r="F74" t="n">
-        <v>0.302769881678665</v>
+        <v>1.618677240300552</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.985970589659314</v>
+        <v>-5.710380798194859</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.595891023823657</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.74977836191217</v>
+        <v>-12.18817730592124</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2857760725901045</v>
+        <v>1.572251934423792</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.72607528594821</v>
+        <v>-5.472559117074905</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.367026377969582</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.93617347746982</v>
+        <v>-12.35827250444095</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1845071101093534</v>
+        <v>1.456699269542717</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.422202936991748</v>
+        <v>-5.172509720548227</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.137710936804439</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.43764795321645</v>
+        <v>-12.77255224326168</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2156667908726614</v>
+        <v>1.505140790057104</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.203194895055354</v>
+        <v>-4.914905569834425</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.906737121477703</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.15498831821747</v>
+        <v>-13.44680583961058</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06187150939090532</v>
+        <v>1.303702618534306</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.006011721956118</v>
+        <v>-4.720668164874577</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.679209166212069</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.63005561913234</v>
+        <v>-13.89638242689261</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03173302824925191</v>
+        <v>1.25314014495956</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.753579030864798</v>
+        <v>-4.433658701978258</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.455687109165438</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.1030805208039</v>
+        <v>-14.29107608066212</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03092130547306489</v>
+        <v>1.258494896821826</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.502861431445743</v>
+        <v>-4.186135624452585</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.241431712363405</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.69823042338308</v>
+        <v>-14.82313417584703</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.05386444772995312</v>
+        <v>1.164688546960859</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.25488012332061</v>
+        <v>-3.933729117966948</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.038310407552756</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.64418858060632</v>
+        <v>-15.7044687262435</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08211763726239799</v>
+        <v>1.137338726324493</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.975542749889542</v>
+        <v>-3.598814918972754</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8508172479442699</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.31277320982474</v>
+        <v>-16.35177836334412</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1089437657850947</v>
+        <v>1.057554232807014</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.826369051310916</v>
+        <v>-3.472068335162004</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6810372739359698</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.137876319516</v>
+        <v>-17.15165260545938</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2233835849246223</v>
+        <v>0.9355732472306527</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.657871113737901</v>
+        <v>-3.262120166792084</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5319933120235849</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.06500774525284</v>
+        <v>-18.06832328122567</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.26182258606793</v>
+        <v>0.9153587316430277</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.404875453624387</v>
+        <v>-3.04075551034418</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4050767778580658</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.20847638314635</v>
+        <v>-19.20184176895947</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3259748699923877</v>
+        <v>0.8016782660683203</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.23172974854256</v>
+        <v>-2.879628539271057</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3015675543231773</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.43515969790187</v>
+        <v>-20.4341416816341</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2972896344661659</v>
+        <v>0.775690044927494</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.110272455079867</v>
+        <v>-2.770661302719371</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2223336795032719</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.71493230068059</v>
+        <v>-21.6564259826348</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2646374311789011</v>
+        <v>0.8200467669552619</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.000833895625878</v>
+        <v>-2.749268479875991</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1686181458814506</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.17471097523021</v>
+        <v>-23.00804914340891</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4559290679993607</v>
+        <v>0.5899495445119263</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.046931893931596</v>
+        <v>-2.800210630233147</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1421925606211079</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.69353593559601</v>
+        <v>-24.46081034363537</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3114947830494387</v>
+        <v>0.714562082959475</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.219174230117344</v>
+        <v>-2.984707361878751</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1456652168533476</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.24723879073217</v>
+        <v>-25.95809846582653</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4038871642034996</v>
+        <v>0.5866895611043365</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.272512271894536</v>
+        <v>-2.992313989829793</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1806332845952683</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.02055193373544</v>
+        <v>-27.73514291513969</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5419978668808678</v>
+        <v>0.3925307099615389</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.386873537217013</v>
+        <v>-3.09332110625371</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2501371817334254</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.81004716305108</v>
+        <v>-29.45401826292706</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5983733229173404</v>
+        <v>0.3016046667257514</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.398944640437085</v>
+        <v>-3.108730746698422</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.355092731118747</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.50890437979346</v>
+        <v>-31.13990100755329</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.571049686886658</v>
+        <v>0.3068939570738087</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.606981332592112</v>
+        <v>-3.349720765106074</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4967879628420886</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.18041177589946</v>
+        <v>-32.83756682473707</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.8225397321733741</v>
+        <v>0.02768750667115856</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.629277524331572</v>
+        <v>-3.424281429789704</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.6759259711044073</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.23590332205046</v>
+        <v>-34.90799668843047</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.033417454045056</v>
+        <v>-0.2144022651751982</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.97651158029983</v>
+        <v>-3.716632552245446</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.8874497631625419</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.33082888436073</v>
+        <v>-36.87720995885449</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.155005670536166</v>
+        <v>-0.358509242554077</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.206425510503382</v>
+        <v>-3.919078831087057</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.131062847474208</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.5232397336305</v>
+        <v>-39.10033535059094</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.120232514188541</v>
+        <v>-0.4779765059848274</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.453058311435818</v>
+        <v>-4.165135570694456</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.389567502875105</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.58260660142264</v>
+        <v>-41.133321228157</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.24044603888127</v>
+        <v>-0.6021962753471243</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.748446848150841</v>
+        <v>-4.448871957880344</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.665584286687691</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.78755987681478</v>
+        <v>-43.30998203710817</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.30832962911562</v>
+        <v>-0.7364971178975503</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.839922768105981</v>
+        <v>-4.510641442687607</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.922197850510917</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.12549167217033</v>
+        <v>-45.55431695944822</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.529222962661222</v>
+        <v>-0.9710457233070728</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.108157868727265</v>
+        <v>-4.820929020036515</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.182410487792141</v>
       </c>
       <c r="E102" t="n">
-        <v>-47.50733505125702</v>
+        <v>-47.91392960830967</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.825763622026317</v>
+        <v>-1.231346888406271</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.324364157855529</v>
+        <v>-5.021673299508701</v>
       </c>
     </row>
   </sheetData>
